--- a/raw data/2019-local-legis.xlsx
+++ b/raw data/2019-local-legis.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisgoodman/Dropbox/Data/Chicagoland/chi-local-legis/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC4E029-934E-AD48-B9A6-2A3BFF18CD92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190CFAFF-01A6-7D41-9D79-F6B768BACF1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="26800" windowHeight="16540" xr2:uid="{A1B2DC92-8295-8F46-8AF5-2A1A38E3BED6}"/>
+    <workbookView xWindow="720" yWindow="960" windowWidth="26800" windowHeight="16540" xr2:uid="{A1B2DC92-8295-8F46-8AF5-2A1A38E3BED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -312,7 +312,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -328,6 +328,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -337,7 +345,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -345,33 +353,28 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -687,7 +690,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -697,426 +700,438 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{1E0AB3E6-E4EF-D544-9E35-B9A54A05D2BB}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{77A23FEF-CDBB-CE48-9C02-C57F07CC061E}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{94E69C63-3AA7-0A45-856C-E6C126FC4F7C}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{AEFB4D8A-42B9-8546-8870-524CB4ECC12B}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{3FD4DAFF-ED9D-A341-A7BC-209091E4F37E}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{323F580C-775E-5543-ACDB-8C2507EFC994}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{ED0D8624-15EB-314F-A6F4-39822D3DC56E}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{0B9C7860-1FE6-F949-A0AF-11E06C7D3A1C}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{8EBC6664-224C-8F4C-A58F-F4AD3F762ED6}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{C2FC092B-BE58-414B-AB6B-50D8118AD17E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>